--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -158,10 +158,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1856,16 +1852,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1873,10 +1869,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1887,28 +1883,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1958,13 +1954,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1987,10 +1983,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2001,25 +1997,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2070,19 +2066,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2099,10 +2095,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2113,28 +2109,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2184,19 +2180,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2213,10 +2209,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2227,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2239,16 +2235,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2274,43 +2270,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2327,21 +2323,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2353,16 +2349,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2412,28 +2408,28 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2441,14 +2437,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2467,16 +2463,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2526,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2547,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2555,14 +2551,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2581,16 +2577,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2640,7 +2636,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2652,7 +2648,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2661,7 +2657,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2669,14 +2665,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2689,25 +2685,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2756,7 +2752,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2768,7 +2764,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2777,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2785,14 +2781,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2808,22 +2804,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2872,7 +2868,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2884,31 +2880,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2918,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
@@ -2927,19 +2923,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2988,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3000,16 +2996,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -3017,10 +3013,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3028,34 +3024,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -3080,95 +3076,95 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3194,29 +3190,29 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3228,27 +3224,27 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3259,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3271,13 +3267,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3328,28 +3324,28 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3357,14 +3353,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3383,16 +3379,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3430,19 +3426,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3454,7 +3450,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3463,7 +3459,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3471,10 +3467,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3494,22 +3490,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3558,7 +3554,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3570,16 +3566,16 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3587,10 +3583,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3601,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3613,13 +3609,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3670,28 +3666,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3699,14 +3695,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3725,16 +3721,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3772,19 +3768,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3796,7 +3792,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3805,7 +3801,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3813,10 +3809,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3827,31 +3823,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3900,28 +3896,28 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3929,10 +3925,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3943,28 +3939,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4014,28 +4010,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -4043,10 +4039,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4057,29 +4053,29 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -4128,28 +4124,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4157,10 +4153,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4171,29 +4167,29 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4242,28 +4238,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4271,10 +4267,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4285,31 +4281,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4358,28 +4354,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4387,10 +4383,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4401,31 +4397,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4474,28 +4470,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4503,44 +4499,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4551,7 +4547,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4566,11 +4562,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4588,7 +4584,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4600,27 +4596,27 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4631,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4643,13 +4639,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4700,28 +4696,28 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4729,14 +4725,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4755,16 +4751,16 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4802,19 +4798,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4826,7 +4822,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -4835,7 +4831,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4843,10 +4839,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4866,22 +4862,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4930,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4942,16 +4938,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4959,10 +4955,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4973,7 +4969,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4985,13 +4981,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5042,28 +5038,28 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -5071,14 +5067,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5097,16 +5093,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5144,19 +5140,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5168,7 +5164,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5177,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5185,10 +5181,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5199,31 +5195,31 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5272,28 +5268,28 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5301,10 +5297,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5315,28 +5311,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5386,28 +5382,28 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5415,10 +5411,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5429,29 +5425,29 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5500,28 +5496,28 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5529,10 +5525,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5543,29 +5539,29 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5614,28 +5610,28 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5643,10 +5639,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5657,31 +5653,31 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5730,28 +5726,28 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5759,10 +5755,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5773,31 +5769,31 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5846,28 +5842,28 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5875,16 +5871,16 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="D37" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5900,19 +5896,19 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5938,11 +5934,11 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5960,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5972,27 +5968,27 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6003,7 +5999,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6015,13 +6011,13 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6072,28 +6068,28 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6101,14 +6097,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6127,16 +6123,16 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6174,19 +6170,19 @@
         <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC39" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC39" t="s" s="2">
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6198,7 +6194,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6207,7 +6203,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6215,10 +6211,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6238,22 +6234,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6302,7 +6298,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6314,16 +6310,16 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6331,10 +6327,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6345,7 +6341,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6357,13 +6353,13 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6414,28 +6410,28 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6443,14 +6439,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6469,16 +6465,16 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6516,19 +6512,19 @@
         <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC42" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC42" t="s" s="2">
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6540,7 +6536,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -6549,7 +6545,7 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6557,10 +6553,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6571,31 +6567,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6644,28 +6640,28 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6673,10 +6669,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6687,28 +6683,28 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6758,28 +6754,28 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6787,10 +6783,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6801,29 +6797,29 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6872,28 +6868,28 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6901,10 +6897,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6915,29 +6911,29 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -6986,28 +6982,28 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -7015,10 +7011,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7029,31 +7025,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7102,28 +7098,28 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7131,10 +7127,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7145,31 +7141,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7218,28 +7214,28 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7247,42 +7243,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7308,61 +7304,61 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7373,7 +7369,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7385,13 +7381,13 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7442,28 +7438,28 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7471,14 +7467,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7497,16 +7493,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7544,19 +7540,19 @@
         <v>41</v>
       </c>
       <c r="AB51" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC51" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC51" t="s" s="2">
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7568,7 +7564,7 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -7577,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7585,10 +7581,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7608,22 +7604,22 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7660,17 +7656,17 @@
         <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7682,16 +7678,16 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7699,13 +7695,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>41</v>
@@ -7715,31 +7711,31 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7788,7 +7784,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7800,16 +7796,16 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7817,10 +7813,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7831,7 +7827,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7843,13 +7839,13 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7900,28 +7896,28 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7929,14 +7925,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7955,16 +7951,16 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8002,19 +7998,19 @@
         <v>41</v>
       </c>
       <c r="AB55" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC55" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC55" t="s" s="2">
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8026,7 +8022,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8035,7 +8031,7 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8043,10 +8039,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8054,41 +8050,41 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N56" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>41</v>
@@ -8130,28 +8126,28 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8159,10 +8155,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8173,28 +8169,28 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8244,28 +8240,28 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8273,10 +8269,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8284,39 +8280,39 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -8358,28 +8354,28 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8387,10 +8383,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8401,29 +8397,29 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8433,7 +8429,7 @@
         <v>41</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>41</v>
@@ -8472,28 +8468,28 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8501,10 +8497,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8515,31 +8511,31 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8588,28 +8584,28 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8617,10 +8613,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8631,31 +8627,31 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -8704,28 +8700,28 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8733,45 +8729,45 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -8820,74 +8816,74 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K63" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8936,74 +8932,74 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9052,74 +9048,74 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H65" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9168,43 +9164,43 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9214,28 +9210,28 @@
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9284,7 +9280,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9296,31 +9292,31 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9330,28 +9326,28 @@
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="O67" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9400,7 +9396,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9412,27 +9408,27 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9455,19 +9451,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9516,7 +9512,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9528,16 +9524,16 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9545,14 +9541,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9571,19 +9567,19 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -9632,7 +9628,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9644,16 +9640,16 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9661,10 +9657,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9678,7 +9674,7 @@
         <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>41</v>
@@ -9687,16 +9683,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9746,7 +9742,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9758,7 +9754,7 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -9767,7 +9763,7 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9775,14 +9771,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9798,22 +9794,22 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -9862,7 +9858,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -9874,16 +9870,16 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9891,10 +9887,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9905,7 +9901,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -9917,13 +9913,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9974,28 +9970,28 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -10003,14 +9999,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10029,16 +10025,16 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10088,7 +10084,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10100,7 +10096,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10109,7 +10105,7 @@
         <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -10117,14 +10113,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10137,25 +10133,25 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10204,7 +10200,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10216,7 +10212,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -10225,7 +10221,7 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -10233,10 +10229,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10247,7 +10243,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10259,19 +10255,19 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10320,19 +10316,19 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -10341,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10349,10 +10345,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10360,31 +10356,31 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H76" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="I76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10434,19 +10430,19 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -10455,7 +10451,7 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10463,25 +10459,25 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H77" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H77" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10489,19 +10485,19 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -10550,28 +10546,28 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10579,10 +10575,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10605,16 +10601,16 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10640,14 +10636,14 @@
         <v>41</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10664,7 +10660,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10676,16 +10672,16 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10693,10 +10689,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10710,7 +10706,7 @@
         <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>41</v>
@@ -10719,19 +10715,19 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -10780,7 +10776,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -10792,16 +10788,16 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
